--- a/Hadoop Notes/Kafka Configurations.xlsx
+++ b/Hadoop Notes/Kafka Configurations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12300" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12300" tabRatio="703"/>
   </bookViews>
   <sheets>
     <sheet name="Broker Config" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Admin Config" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Broker Config'!$A$1:$G$182</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Topic Config'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -3827,12 +3828,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3853,6 +3848,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4137,8 +4138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G182"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4151,31 +4152,31 @@
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4322,7 +4323,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4490,7 +4491,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -4840,101 +4841,101 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="19">
         <v>1000012</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
     </row>
     <row r="38" spans="1:7" ht="57" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="18" t="s">
         <v>88</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="18">
         <v>1</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="57" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -7136,78 +7137,78 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="12" t="s">
+      <c r="A141" s="18" t="s">
         <v>309</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C141" s="12" t="s">
+      <c r="C141" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D141" s="12" t="s">
+      <c r="D141" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="E141" s="12" t="s">
+      <c r="E141" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="F141" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="G141" s="12" t="s">
+      <c r="F141" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G141" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="12"/>
+      <c r="A142" s="18"/>
       <c r="B142" s="9"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="12"/>
-      <c r="G142" s="12"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="18"/>
+      <c r="G142" s="18"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="12"/>
+      <c r="A143" s="18"/>
       <c r="B143" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12"/>
-      <c r="G143" s="12"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="18"/>
     </row>
     <row r="144" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="12"/>
+      <c r="A144" s="18"/>
       <c r="B144" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C144" s="12"/>
-      <c r="D144" s="12"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="12"/>
-      <c r="G144" s="12"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="18"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="18"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="12"/>
+      <c r="A145" s="18"/>
       <c r="B145" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="12"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="18"/>
+      <c r="F145" s="18"/>
+      <c r="G145" s="18"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="12"/>
+      <c r="A146" s="18"/>
       <c r="B146" s="2"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12"/>
-      <c r="G146" s="12"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="18"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
@@ -7992,12 +7993,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G182"/>
   <mergeCells count="18">
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="C141:C146"/>
-    <mergeCell ref="D141:D146"/>
-    <mergeCell ref="E141:E146"/>
-    <mergeCell ref="F141:F146"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="F33:F37"/>
     <mergeCell ref="G141:G146"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="C38:C39"/>
@@ -8005,12 +8008,11 @@
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="G38:G39"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="C141:C146"/>
+    <mergeCell ref="D141:D146"/>
+    <mergeCell ref="E141:E146"/>
+    <mergeCell ref="F141:F146"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B131" r:id="rId1" display="http://docs.oracle.com/javase/8/docs/technotes/guides/security/jgss/tutorials/LoginConfigFile.html"/>
@@ -8026,12 +8028,13 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="133" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="155.85546875" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -8060,7 +8063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>400</v>
       </c>
@@ -8106,7 +8109,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>404</v>
       </c>
@@ -8152,7 +8155,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>408</v>
       </c>
@@ -8221,7 +8224,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>415</v>
       </c>
@@ -8268,47 +8271,47 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="19" t="s">
         <v>419</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="19">
         <v>1000012</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="19" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -8375,7 +8378,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>424</v>
       </c>
@@ -8421,39 +8424,39 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="19">
         <v>1</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="19" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -8564,7 +8567,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>439</v>
       </c>
@@ -8610,7 +8613,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>164</v>
       </c>
@@ -8634,11 +8637,6 @@
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <mergeCells count="12">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="C11:C13"/>
@@ -8646,6 +8644,11 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="compaction" display="http://kafka.apache.org/documentation/ - compaction"/>
@@ -8728,70 +8731,70 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="18" t="s">
         <v>448</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="18">
         <v>1</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -8814,42 +8817,42 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="18" t="s">
         <v>457</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="18">
         <v>33554432</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -8980,78 +8983,78 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="18" t="s">
         <v>464</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="18">
         <v>16384</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="18" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -9809,21 +9812,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="F4:F9"/>
     <mergeCell ref="A21:A27"/>
     <mergeCell ref="C21:C27"/>
     <mergeCell ref="D21:D27"/>
     <mergeCell ref="E21:E27"/>
     <mergeCell ref="F21:F27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B36" r:id="rId1" display="http://docs.oracle.com/javase/8/docs/technotes/guides/security/jgss/tutorials/LoginConfigFile.html"/>
@@ -10107,80 +10110,80 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="19" t="s">
         <v>529</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="19" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="15" t="s">
         <v>534</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -10257,60 +10260,60 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="18" t="s">
         <v>543</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="18" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -11014,16 +11017,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="F26:F30"/>
     <mergeCell ref="A15:A21"/>
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="D15:D21"/>
     <mergeCell ref="E15:E21"/>
     <mergeCell ref="F15:F21"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="F26:F30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B36" r:id="rId1" display="http://docs.oracle.com/javase/8/docs/technotes/guides/security/jgss/tutorials/LoginConfigFile.html"/>
@@ -11068,22 +11071,22 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="5" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="5" t="s">
         <v>569</v>
       </c>
@@ -11125,7 +11128,7 @@
       <c r="A9" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>577</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -11232,10 +11235,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="19" t="s">
         <v>596</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -11243,22 +11246,22 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="5" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="5" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="5" t="s">
         <v>600</v>
       </c>
@@ -11385,10 +11388,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="19" t="s">
         <v>553</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="19" t="s">
         <v>621</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -11396,25 +11399,25 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="5" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" ht="57" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="5" t="s">
         <v>624</v>
       </c>
@@ -12579,68 +12582,68 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="19" t="s">
         <v>309</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11" t="s">
+      <c r="E63" s="19"/>
+      <c r="F63" s="19" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="19" t="s">
+      <c r="A65" s="19"/>
+      <c r="B65" s="17" t="s">
         <v>679</v>
       </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
     </row>
     <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="19" t="s">
+      <c r="A66" s="19"/>
+      <c r="B66" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="19" t="s">
+      <c r="A67" s="19"/>
+      <c r="B67" s="17" t="s">
         <v>680</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
+      <c r="A68" s="19"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
@@ -13576,7 +13579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
